--- a/Class Info/Requirements/WiU_ All Rubrics 2014.xlsx
+++ b/Class Info/Requirements/WiU_ All Rubrics 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="4700" yWindow="0" windowWidth="23920" windowHeight="15260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
@@ -1464,6 +1464,15 @@
     <xf numFmtId="0" fontId="34" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1491,32 +1500,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -1869,45 +1869,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2013,14 +2013,14 @@
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="12">
       <c r="B11" s="1"/>
@@ -2070,45 +2070,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2256,14 +2256,14 @@
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="12">
       <c r="B13" s="1"/>
@@ -2313,45 +2313,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" ht="78.75" customHeight="1">
+    <row r="7" spans="1:8" ht="84" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="27" t="s">
         <v>25</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="90.75" customHeight="1">
+    <row r="8" spans="1:8" ht="98" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="131.25" customHeight="1">
+    <row r="10" spans="1:8" ht="153" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="14" t="s">
         <v>42</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="71.25" customHeight="1">
+    <row r="12" spans="1:8" ht="166" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
         <v>32</v>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1">
+    <row r="13" spans="1:8" ht="74" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
@@ -2541,14 +2541,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2580,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -2600,45 +2600,45 @@
       <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="131.25" customHeight="1">
+    <row r="10" spans="1:8" ht="177" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="14" t="s">
         <v>42</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="71.25" customHeight="1">
+    <row r="12" spans="1:8" ht="120" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
         <v>32</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1">
+    <row r="13" spans="1:8" ht="98" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
@@ -2828,14 +2828,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2885,45 +2885,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3113,14 +3113,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3170,45 +3170,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3398,14 +3398,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3455,45 +3455,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3679,14 +3679,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3736,45 +3736,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3960,14 +3960,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -4014,47 +4014,47 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
       <c r="A5" s="2"/>
@@ -4098,10 +4098,10 @@
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="24" t="s">
         <v>81</v>
       </c>
@@ -4118,10 +4118,10 @@
       <c r="C8" s="28">
         <v>15</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="24" t="s">
         <v>85</v>
       </c>
@@ -4138,10 +4138,10 @@
       <c r="C9" s="28">
         <v>25</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="24" t="s">
         <v>89</v>
       </c>
@@ -4158,10 +4158,10 @@
       <c r="C10" s="28">
         <v>25</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="24" t="s">
         <v>93</v>
       </c>
@@ -4190,10 +4190,10 @@
       <c r="C12" s="28">
         <v>15</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="25" t="s">
         <v>98</v>
       </c>
@@ -4210,10 +4210,10 @@
       <c r="C13" s="28">
         <v>5</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="25" t="s">
         <v>102</v>
       </c>
@@ -4224,14 +4224,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="12">
@@ -4244,21 +4244,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
